--- a/config_3.9/fish_yutu_random_2.xlsx
+++ b/config_3.9/fish_yutu_random_2.xlsx
@@ -429,7 +429,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -444,19 +444,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,7 +479,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -539,21 +527,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1113,7 +1093,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1232,348 +1212,348 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7">
+    <row r="7" spans="1:7" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="21">
         <v>6</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="21">
         <v>200</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="21">
         <v>300</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="24">
-        <v>1612828800</v>
-      </c>
-      <c r="G7" s="24">
-        <v>1613404799</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="F7" s="23">
+        <v>1615248000</v>
+      </c>
+      <c r="G7" s="23">
+        <v>1615823999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="21">
         <v>7</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="21">
         <v>200</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="21">
         <v>300</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="F8" s="24">
-        <v>1612828800</v>
-      </c>
-      <c r="G8" s="24">
-        <v>1613404799</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="F8" s="23">
+        <v>1615248000</v>
+      </c>
+      <c r="G8" s="23">
+        <v>1615823999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="21">
         <v>8</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="21">
         <v>200</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="21">
         <v>300</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="F9" s="24">
-        <v>1612828800</v>
-      </c>
-      <c r="G9" s="24">
-        <v>1613404799</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="F9" s="23">
+        <v>1615248000</v>
+      </c>
+      <c r="G9" s="23">
+        <v>1615823999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="21">
         <v>9</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="21">
         <v>200</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="21">
         <v>300</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="F10" s="24">
-        <v>1612828800</v>
-      </c>
-      <c r="G10" s="24">
-        <v>1613404799</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="F10" s="23">
+        <v>1615248000</v>
+      </c>
+      <c r="G10" s="23">
+        <v>1615823999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="21">
         <v>10</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11" s="21">
         <v>3000</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="21">
         <v>6000</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="F11" s="24">
-        <v>1612828800</v>
-      </c>
-      <c r="G11" s="24">
-        <v>1613404799</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="F11" s="23">
+        <v>1615248000</v>
+      </c>
+      <c r="G11" s="23">
+        <v>1615823999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="19">
         <v>11</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="19">
         <v>200</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="19">
         <v>300</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="25">
+      <c r="F12" s="18">
         <v>1613433600</v>
       </c>
-      <c r="G12" s="25">
+      <c r="G12" s="18">
         <v>1614009599</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13">
+    <row r="13" spans="1:7" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="19">
         <v>12</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="19">
         <v>200</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="19">
         <v>300</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="F13" s="25">
+      <c r="F13" s="18">
         <v>1613433600</v>
       </c>
-      <c r="G13" s="25">
+      <c r="G13" s="18">
         <v>1614009599</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A14">
+    <row r="14" spans="1:7" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="19">
         <v>13</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="19">
         <v>200</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="19">
         <v>300</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="25">
+      <c r="F14" s="18">
         <v>1613433600</v>
       </c>
-      <c r="G14" s="25">
+      <c r="G14" s="18">
         <v>1614009599</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A15">
+    <row r="15" spans="1:7" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="19">
         <v>14</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="19">
         <v>200</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="19">
         <v>300</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E15" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="F15" s="25">
+      <c r="F15" s="18">
         <v>1613433600</v>
       </c>
-      <c r="G15" s="25">
+      <c r="G15" s="18">
         <v>1614009599</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A16">
+    <row r="16" spans="1:7" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="19">
         <v>15</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="C16" s="20">
+      <c r="C16" s="19">
         <v>3000</v>
       </c>
-      <c r="D16" s="20">
+      <c r="D16" s="19">
         <v>6000</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="E16" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="F16" s="25">
+      <c r="F16" s="18">
         <v>1613433600</v>
       </c>
-      <c r="G16" s="25">
+      <c r="G16" s="18">
         <v>1614009599</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A17">
+    <row r="17" spans="1:7" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="19">
         <v>16</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="21">
+      <c r="C17" s="19">
         <v>200</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D17" s="19">
         <v>300</v>
       </c>
-      <c r="E17" s="23" t="s">
+      <c r="E17" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="F17" s="26">
+      <c r="F17" s="18">
         <v>1614038400</v>
       </c>
-      <c r="G17" s="26">
+      <c r="G17" s="18">
         <v>1614614399</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A18">
+    <row r="18" spans="1:7" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="19">
         <v>17</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="C18" s="21">
+      <c r="C18" s="19">
         <v>200</v>
       </c>
-      <c r="D18" s="21">
+      <c r="D18" s="19">
         <v>300</v>
       </c>
-      <c r="E18" s="23" t="s">
+      <c r="E18" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="F18" s="26">
+      <c r="F18" s="18">
         <v>1614038400</v>
       </c>
-      <c r="G18" s="26">
+      <c r="G18" s="18">
         <v>1614614399</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A19">
+    <row r="19" spans="1:7" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="19">
         <v>18</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C19" s="19">
         <v>200</v>
       </c>
-      <c r="D19" s="21">
+      <c r="D19" s="19">
         <v>300</v>
       </c>
-      <c r="E19" s="23" t="s">
+      <c r="E19" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="F19" s="26">
+      <c r="F19" s="18">
         <v>1614038400</v>
       </c>
-      <c r="G19" s="26">
+      <c r="G19" s="18">
         <v>1614614399</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A20">
+    <row r="20" spans="1:7" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="19">
         <v>19</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="C20" s="21">
+      <c r="C20" s="19">
         <v>200</v>
       </c>
-      <c r="D20" s="21">
+      <c r="D20" s="19">
         <v>300</v>
       </c>
-      <c r="E20" s="23" t="s">
+      <c r="E20" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="F20" s="26">
+      <c r="F20" s="18">
         <v>1614038400</v>
       </c>
-      <c r="G20" s="26">
+      <c r="G20" s="18">
         <v>1614614399</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A21">
+    <row r="21" spans="1:7" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="19">
         <v>20</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="C21" s="21">
+      <c r="C21" s="19">
         <v>3000</v>
       </c>
-      <c r="D21" s="21">
+      <c r="D21" s="19">
         <v>6000</v>
       </c>
-      <c r="E21" s="23" t="s">
+      <c r="E21" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="F21" s="26">
+      <c r="F21" s="18">
         <v>1614038400</v>
       </c>
-      <c r="G21" s="26">
+      <c r="G21" s="18">
         <v>1614614399</v>
       </c>
     </row>

--- a/config_3.9/fish_yutu_random_2.xlsx
+++ b/config_3.9/fish_yutu_random_2.xlsx
@@ -1093,7 +1093,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1315,7 +1315,7 @@
         <v>3000</v>
       </c>
       <c r="D11" s="21">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="E11" s="22" t="s">
         <v>79</v>
@@ -1430,7 +1430,7 @@
         <v>3000</v>
       </c>
       <c r="D16" s="19">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="E16" s="20" t="s">
         <v>79</v>
@@ -1545,7 +1545,7 @@
         <v>3000</v>
       </c>
       <c r="D21" s="19">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="E21" s="20" t="s">
         <v>79</v>
